--- a/dataset/wider_face_style_train/retinaface_real_people.xlsx
+++ b/dataset/wider_face_style_train/retinaface_real_people.xlsx
@@ -438,19 +438,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>0.8758091609921949</v>
+        <v>0.8642207331115092</v>
       </c>
       <c r="B2">
-        <v>0.1456656715576808</v>
+        <v>0.1363113876655567</v>
       </c>
       <c r="C2">
-        <v>0.0303745236834077</v>
+        <v>0.04578119463364336</v>
       </c>
       <c r="D2">
-        <v>0.04972054423406965</v>
+        <v>0.05121405139420469</v>
       </c>
       <c r="E2">
-        <v>0.014182125375862</v>
+        <v>0.01281323918690157</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -458,19 +458,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>-0.7372671293692341</v>
+        <v>-0.7493438769507179</v>
       </c>
       <c r="B3">
-        <v>-0.1047591441959792</v>
+        <v>-0.1096752117862357</v>
       </c>
       <c r="C3">
-        <v>-0.1220359586953075</v>
+        <v>-0.1176799860765908</v>
       </c>
       <c r="D3">
-        <v>-0.05747342243201718</v>
+        <v>-0.06928264725392688</v>
       </c>
       <c r="E3">
-        <v>-0.06309294754189695</v>
+        <v>-0.03709190225500564</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -478,19 +478,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>0.8233883484984734</v>
+        <v>0.8079570140813407</v>
       </c>
       <c r="B4">
-        <v>-0.6702436551811957</v>
+        <v>-0.6854285361295791</v>
       </c>
       <c r="C4">
-        <v>-0.1907170890234385</v>
+        <v>-0.1563013979260822</v>
       </c>
       <c r="D4">
-        <v>-0.05462147583948596</v>
+        <v>-0.07103987200492272</v>
       </c>
       <c r="E4">
-        <v>0.4002078676408962</v>
+        <v>0.4063360846629895</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -498,19 +498,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>-1.165580149451538</v>
+        <v>-1.175609776417535</v>
       </c>
       <c r="B5">
-        <v>0.1555490989249321</v>
+        <v>0.1555520270486837</v>
       </c>
       <c r="C5">
-        <v>-0.05621166593046584</v>
+        <v>-0.0644464287667121</v>
       </c>
       <c r="D5">
-        <v>0.3544734625681717</v>
+        <v>0.3553363052157871</v>
       </c>
       <c r="E5">
-        <v>0.1210184007446644</v>
+        <v>0.1271337456501989</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -518,19 +518,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>0.0877798201780903</v>
+        <v>0.06495539128117102</v>
       </c>
       <c r="B6">
-        <v>0.06649421185651727</v>
+        <v>0.0789486889287169</v>
       </c>
       <c r="C6">
-        <v>1.008885445404731</v>
+        <v>1.018400170891542</v>
       </c>
       <c r="D6">
-        <v>-0.179416191020832</v>
+        <v>-0.1767022849442542</v>
       </c>
       <c r="E6">
-        <v>-0.1153018374881904</v>
+        <v>-0.1102773514992586</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
@@ -538,19 +538,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>0.7610674660724833</v>
+        <v>0.7522842474710878</v>
       </c>
       <c r="B7">
-        <v>0.520136978133844</v>
+        <v>0.507080248125388</v>
       </c>
       <c r="C7">
-        <v>-0.1204839248497289</v>
+        <v>-0.1112064084468449</v>
       </c>
       <c r="D7">
-        <v>-0.1841686725234966</v>
+        <v>-0.1840062700387655</v>
       </c>
       <c r="E7">
-        <v>-0.02616786726344315</v>
+        <v>-0.03259610385937829</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -558,19 +558,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>-1.368391369256041</v>
+        <v>-1.384045075172148</v>
       </c>
       <c r="B8">
-        <v>0.4939945435565279</v>
+        <v>0.5051798620542988</v>
       </c>
       <c r="C8">
-        <v>0.5580234993769727</v>
+        <v>0.5434878960052636</v>
       </c>
       <c r="D8">
-        <v>0.1399835491499147</v>
+        <v>0.139412633571673</v>
       </c>
       <c r="E8">
-        <v>0.1491676919940072</v>
+        <v>0.1543618289537597</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -578,19 +578,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1.408032940467841</v>
+        <v>1.395546064300245</v>
       </c>
       <c r="B9">
-        <v>0.2493024717873551</v>
+        <v>0.2426975624373594</v>
       </c>
       <c r="C9">
-        <v>0.2531173200915994</v>
+        <v>0.2700753963239798</v>
       </c>
       <c r="D9">
-        <v>0.1462378969829151</v>
+        <v>0.1565944220195196</v>
       </c>
       <c r="E9">
-        <v>-0.1161123772501232</v>
+        <v>-0.1222780515201706</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -598,19 +598,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>1.096119895439053</v>
+        <v>1.083194354871956</v>
       </c>
       <c r="B10">
-        <v>0.36826299099001</v>
+        <v>0.3609484615105997</v>
       </c>
       <c r="C10">
-        <v>0.2244615154982648</v>
+        <v>0.2389046647733641</v>
       </c>
       <c r="D10">
-        <v>0.04292530331140672</v>
+        <v>0.0438269765960545</v>
       </c>
       <c r="E10">
-        <v>0.1010948182492413</v>
+        <v>0.09610876909250834</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -618,19 +618,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>-0.1067357895442648</v>
+        <v>-0.1181627099546504</v>
       </c>
       <c r="B11">
-        <v>-0.8420521371543028</v>
+        <v>-0.8565148948013409</v>
       </c>
       <c r="C11">
-        <v>-0.4719556162808553</v>
+        <v>-0.4473494836059416</v>
       </c>
       <c r="D11">
-        <v>-0.1020605679245228</v>
+        <v>-0.09655150832614325</v>
       </c>
       <c r="E11">
-        <v>-0.0798600964354471</v>
+        <v>-0.0848394904264534</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -638,19 +638,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>-0.2217306744017034</v>
+        <v>-0.229075450112245</v>
       </c>
       <c r="B12">
-        <v>-0.2200294021399054</v>
+        <v>-0.2348543394962437</v>
       </c>
       <c r="C12">
-        <v>-0.5423054772369749</v>
+        <v>-0.5315286909402757</v>
       </c>
       <c r="D12">
-        <v>0.008169153519337729</v>
+        <v>0.007715732159584824</v>
       </c>
       <c r="E12">
-        <v>-0.06628549662835299</v>
+        <v>-0.06202599751200395</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -658,19 +658,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>0.3343190540355936</v>
+        <v>0.5543787745226978</v>
       </c>
       <c r="B13">
-        <v>-0.1115530872198304</v>
+        <v>-0.003181651446204666</v>
       </c>
       <c r="C13">
-        <v>0.05343509026076672</v>
+        <v>-0.1137064838100931</v>
       </c>
       <c r="D13">
-        <v>0.2030678045248385</v>
+        <v>0.1960103572456168</v>
       </c>
       <c r="E13">
-        <v>-0.1514931907215794</v>
+        <v>-0.1664810034022458</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -678,19 +678,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>-0.8988670880536664</v>
+        <v>-0.8978468511190866</v>
       </c>
       <c r="B14">
-        <v>1.143145742661293</v>
+        <v>1.124684196671407</v>
       </c>
       <c r="C14">
-        <v>-0.7944206798352704</v>
+        <v>-0.8134283426685033</v>
       </c>
       <c r="D14">
-        <v>-0.2208169693103831</v>
+        <v>-0.2248840478160939</v>
       </c>
       <c r="E14">
-        <v>0.05659203663766033</v>
+        <v>0.04070928574358189</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -698,19 +698,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>-1.190326877979055</v>
+        <v>-1.214267130075492</v>
       </c>
       <c r="B15">
-        <v>-0.6394644963598778</v>
+        <v>-0.6254253284497149</v>
       </c>
       <c r="C15">
-        <v>0.8361680282062736</v>
+        <v>0.8469811931058914</v>
       </c>
       <c r="D15">
-        <v>-0.2263763628029714</v>
+        <v>-0.1875940324736835</v>
       </c>
       <c r="E15">
-        <v>0.01429300223526748</v>
+        <v>-0.04128058367036361</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -718,19 +718,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>-0.07525117093650839</v>
+        <v>-0.08946275117270334</v>
       </c>
       <c r="B16">
-        <v>0.03377413674262371</v>
+        <v>0.03441640488013157</v>
       </c>
       <c r="C16">
-        <v>0.263540026631381</v>
+        <v>0.2694810031973771</v>
       </c>
       <c r="D16">
-        <v>0.1131841965203469</v>
+        <v>0.1116597438947088</v>
       </c>
       <c r="E16">
-        <v>-0.07954422218232801</v>
+        <v>-0.06546902300932564</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -738,19 +738,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>-0.2051745023951163</v>
+        <v>-0.2147352042717159</v>
       </c>
       <c r="B17">
-        <v>-0.6746121598014183</v>
+        <v>-0.6875542951599238</v>
       </c>
       <c r="C17">
-        <v>-0.4784486507106828</v>
+        <v>-0.4602597451216613</v>
       </c>
       <c r="D17">
-        <v>0.1275212015294543</v>
+        <v>0.1389837810984315</v>
       </c>
       <c r="E17">
-        <v>-0.05081056579688434</v>
+        <v>-0.06124221788119844</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -758,19 +758,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>0.2336893977173727</v>
+        <v>0.2231560037435797</v>
       </c>
       <c r="B18">
-        <v>0.2068665248022683</v>
+        <v>0.199329442381917</v>
       </c>
       <c r="C18">
-        <v>-0.04895075550851506</v>
+        <v>-0.04170985658668373</v>
       </c>
       <c r="D18">
-        <v>0.006164091190530642</v>
+        <v>0.0006629232391801249</v>
       </c>
       <c r="E18">
-        <v>-0.1011361581829439</v>
+        <v>-0.08558345381585487</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
@@ -778,19 +778,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>-0.3179499567722147</v>
+        <v>-0.3261270174712719</v>
       </c>
       <c r="B19">
-        <v>-0.1107669705322763</v>
+        <v>-0.1233073540643913</v>
       </c>
       <c r="C19">
-        <v>-0.4401651963521437</v>
+        <v>-0.432155590577181</v>
       </c>
       <c r="D19">
-        <v>-0.06713408390387306</v>
+        <v>-0.07398362606105821</v>
       </c>
       <c r="E19">
-        <v>-0.1486898106091275</v>
+        <v>-0.1307643344056267</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -798,19 +798,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>0.66706862475824</v>
+        <v>0.6529832593339772</v>
       </c>
       <c r="B20">
-        <v>-0.009711318428266447</v>
+        <v>-0.01920667037042418</v>
       </c>
       <c r="C20">
-        <v>0.03768956526998524</v>
+        <v>0.0566608955955071</v>
       </c>
       <c r="D20">
-        <v>-0.09937945777340564</v>
+        <v>-0.1173726375159124</v>
       </c>
       <c r="E20">
-        <v>0.1419386272227186</v>
+        <v>0.1624665599669474</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>

--- a/dataset/wider_face_style_train/retinaface_real_people.xlsx
+++ b/dataset/wider_face_style_train/retinaface_real_people.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Label</t>
   </si>
@@ -410,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:56">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -432,387 +432,3217 @@
       <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:56">
       <c r="A2">
-        <v>0.8642207331115092</v>
+        <v>0.5778021818360716</v>
       </c>
       <c r="B2">
-        <v>0.1363113876655567</v>
+        <v>0.3668383042425713</v>
       </c>
       <c r="C2">
-        <v>0.04578119463364336</v>
+        <v>0.4955476538236038</v>
       </c>
       <c r="D2">
-        <v>0.05121405139420469</v>
+        <v>0.9717108298903695</v>
       </c>
       <c r="E2">
-        <v>0.01281323918690157</v>
-      </c>
-      <c r="F2" t="s">
+        <v>0.3096085068215895</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>0.487792913926398</v>
+      </c>
+      <c r="H2">
+        <v>0.1072575584744803</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.5065732423466135</v>
+      </c>
+      <c r="K2">
+        <v>0.6539664507412318</v>
+      </c>
+      <c r="L2">
+        <v>0.01822615072841986</v>
+      </c>
+      <c r="M2">
+        <v>0.719650254748288</v>
+      </c>
+      <c r="N2">
+        <v>-0.5955299336287855</v>
+      </c>
+      <c r="O2">
+        <v>-0.7260953583910412</v>
+      </c>
+      <c r="P2">
+        <v>-0.04624727749631688</v>
+      </c>
+      <c r="Q2">
+        <v>-0.8608776165511454</v>
+      </c>
+      <c r="R2">
+        <v>0.8122693890708916</v>
+      </c>
+      <c r="S2">
+        <v>0.999969581447624</v>
+      </c>
+      <c r="T2">
+        <v>0.7683171746499011</v>
+      </c>
+      <c r="U2">
+        <v>0.9959092193972225</v>
+      </c>
+      <c r="V2">
+        <v>0.2182838248920136</v>
+      </c>
+      <c r="W2">
+        <v>0.04533906116091854</v>
+      </c>
+      <c r="X2">
+        <v>0.7254699184388794</v>
+      </c>
+      <c r="Y2">
+        <v>-0.1780567610603954</v>
+      </c>
+      <c r="Z2">
+        <v>0.9724638539697883</v>
+      </c>
+      <c r="AA2">
+        <v>0.6480458596207586</v>
+      </c>
+      <c r="AB2">
+        <v>0.7073378593576884</v>
+      </c>
+      <c r="AC2">
+        <v>0.7923454577353999</v>
+      </c>
+      <c r="AD2">
+        <v>0.6742458760269797</v>
+      </c>
+      <c r="AE2">
+        <v>0.9979211800380809</v>
+      </c>
+      <c r="AF2">
+        <v>0.4930370726132598</v>
+      </c>
+      <c r="AG2">
+        <v>0.5979901250207786</v>
+      </c>
+      <c r="AH2">
+        <v>0.01042713684327611</v>
+      </c>
+      <c r="AI2">
+        <v>0.1292104310462474</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.04511292113212505</v>
+      </c>
+      <c r="AK2">
+        <v>0.660311951769583</v>
+      </c>
+      <c r="AL2">
+        <v>-0.2662438766479088</v>
+      </c>
+      <c r="AM2">
+        <v>0.989544322327983</v>
+      </c>
+      <c r="AN2">
+        <v>0.7142127074942792</v>
+      </c>
+      <c r="AO2">
+        <v>0.98477856505915</v>
+      </c>
+      <c r="AP2">
+        <v>0.8300152073233158</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9214239817373766</v>
+      </c>
+      <c r="AR2">
+        <v>-0.01516061033869178</v>
+      </c>
+      <c r="AS2">
+        <v>-0.6017776200448047</v>
+      </c>
+      <c r="AT2">
+        <v>0.7204382389908798</v>
+      </c>
+      <c r="AU2">
+        <v>0.974935380560685</v>
+      </c>
+      <c r="AV2">
+        <v>-0.1887234974279385</v>
+      </c>
+      <c r="AW2">
+        <v>-0.731436336545693</v>
+      </c>
+      <c r="AX2">
+        <v>0.5480809050416467</v>
+      </c>
+      <c r="AY2">
+        <v>0.5450931226910546</v>
+      </c>
+      <c r="AZ2">
+        <v>-0.05403728024654888</v>
+      </c>
+      <c r="BA2">
+        <v>-0.4024833709408378</v>
+      </c>
+      <c r="BB2">
+        <v>-0.864820039484788</v>
+      </c>
+      <c r="BC2">
+        <v>0.8076952205992038</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:56">
       <c r="A3">
-        <v>-0.7493438769507179</v>
+        <v>0.5413230694038947</v>
       </c>
       <c r="B3">
-        <v>-0.1096752117862357</v>
+        <v>0.2225369993765398</v>
       </c>
       <c r="C3">
-        <v>-0.1176799860765908</v>
+        <v>0.6149144371828552</v>
       </c>
       <c r="D3">
-        <v>-0.06928264725392688</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-0.03709190225500564</v>
-      </c>
-      <c r="F3" t="s">
+        <v>0.2311291023545409</v>
+      </c>
+      <c r="F3">
+        <v>0.9904105433973688</v>
+      </c>
+      <c r="G3">
+        <v>0.6142199277867801</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.01686890302156262</v>
+      </c>
+      <c r="J3">
+        <v>0.1537962775144981</v>
+      </c>
+      <c r="K3">
+        <v>0.6553541126190692</v>
+      </c>
+      <c r="L3">
+        <v>0.1457373426256204</v>
+      </c>
+      <c r="M3">
+        <v>0.6334902145615157</v>
+      </c>
+      <c r="N3">
+        <v>-0.6628142991331291</v>
+      </c>
+      <c r="O3">
+        <v>-0.6291583960748891</v>
+      </c>
+      <c r="P3">
+        <v>-0.1358788378756322</v>
+      </c>
+      <c r="Q3">
+        <v>-0.5834502140249093</v>
+      </c>
+      <c r="R3">
+        <v>0.6051078605899723</v>
+      </c>
+      <c r="S3">
+        <v>0.9999990795612892</v>
+      </c>
+      <c r="T3">
+        <v>0.8427670133841444</v>
+      </c>
+      <c r="U3">
+        <v>0.9995911723551593</v>
+      </c>
+      <c r="V3">
+        <v>0.131194646668876</v>
+      </c>
+      <c r="W3">
+        <v>0.1747727890869147</v>
+      </c>
+      <c r="X3">
+        <v>0.6592677615678318</v>
+      </c>
+      <c r="Y3">
+        <v>0.2310672587805026</v>
+      </c>
+      <c r="Z3">
+        <v>0.997904450436931</v>
+      </c>
+      <c r="AA3">
+        <v>0.6563783217357314</v>
+      </c>
+      <c r="AB3">
+        <v>0.8578127915270044</v>
+      </c>
+      <c r="AC3">
+        <v>0.6441924956460783</v>
+      </c>
+      <c r="AD3">
+        <v>0.6772865009135404</v>
+      </c>
+      <c r="AE3">
+        <v>0.9603451804353813</v>
+      </c>
+      <c r="AF3">
+        <v>0.7184473677746881</v>
+      </c>
+      <c r="AG3">
+        <v>0.8758301431684706</v>
+      </c>
+      <c r="AH3">
+        <v>0.147079511545338</v>
+      </c>
+      <c r="AI3">
+        <v>0.1594856312312948</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2028530252347913</v>
+      </c>
+      <c r="AK3">
+        <v>0.6804966071869021</v>
+      </c>
+      <c r="AL3">
+        <v>0.2587907855282231</v>
+      </c>
+      <c r="AM3">
+        <v>0.9993465022162191</v>
+      </c>
+      <c r="AN3">
+        <v>0.6345394479655984</v>
+      </c>
+      <c r="AO3">
+        <v>0.999027706099881</v>
+      </c>
+      <c r="AP3">
+        <v>0.831901630040346</v>
+      </c>
+      <c r="AQ3">
+        <v>0.9948431036693525</v>
+      </c>
+      <c r="AR3">
+        <v>0.1950652285303042</v>
+      </c>
+      <c r="AS3">
+        <v>-0.6617977473558841</v>
+      </c>
+      <c r="AT3">
+        <v>0.8555575401565192</v>
+      </c>
+      <c r="AU3">
+        <v>0.9983473600758745</v>
+      </c>
+      <c r="AV3">
+        <v>0.2381154335245593</v>
+      </c>
+      <c r="AW3">
+        <v>-0.628103215881592</v>
+      </c>
+      <c r="AX3">
+        <v>0.8838951386628143</v>
+      </c>
+      <c r="AY3">
+        <v>0.7065382868900649</v>
+      </c>
+      <c r="AZ3">
+        <v>-0.1345345073311879</v>
+      </c>
+      <c r="BA3">
+        <v>0.2935367651460558</v>
+      </c>
+      <c r="BB3">
+        <v>-0.5823477622357737</v>
+      </c>
+      <c r="BC3">
+        <v>0.6061875024262904</v>
+      </c>
+      <c r="BD3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:56">
       <c r="A4">
-        <v>0.8079570140813407</v>
+        <v>0.5608814610176384</v>
       </c>
       <c r="B4">
-        <v>-0.6854285361295791</v>
+        <v>0.3307170851923901</v>
       </c>
       <c r="C4">
-        <v>-0.1563013979260822</v>
+        <v>0.481572896246531</v>
       </c>
       <c r="D4">
-        <v>-0.07103987200492272</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.4063360846629895</v>
-      </c>
-      <c r="F4" t="s">
+        <v>0.2596415366266974</v>
+      </c>
+      <c r="F4">
+        <v>0.8737845197780145</v>
+      </c>
+      <c r="G4">
+        <v>0.4169034571111274</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.06437999674425134</v>
+      </c>
+      <c r="J4">
+        <v>0.4633975174779583</v>
+      </c>
+      <c r="K4">
+        <v>0.6782035131559672</v>
+      </c>
+      <c r="L4">
+        <v>0.1463207478023925</v>
+      </c>
+      <c r="M4">
+        <v>0.768465158500074</v>
+      </c>
+      <c r="N4">
+        <v>-0.6079845087586842</v>
+      </c>
+      <c r="O4">
+        <v>-0.6831435041984797</v>
+      </c>
+      <c r="P4">
+        <v>0.06048045638859092</v>
+      </c>
+      <c r="Q4">
+        <v>-0.7781992291070668</v>
+      </c>
+      <c r="R4">
+        <v>0.8717410813151079</v>
+      </c>
+      <c r="S4">
+        <v>0.9987365126340391</v>
+      </c>
+      <c r="T4">
+        <v>0.8262000775043136</v>
+      </c>
+      <c r="U4">
+        <v>0.9914155796831788</v>
+      </c>
+      <c r="V4">
+        <v>0.1711152729256229</v>
+      </c>
+      <c r="W4">
+        <v>0.07335661522815216</v>
+      </c>
+      <c r="X4">
+        <v>0.7745469192045555</v>
+      </c>
+      <c r="Y4">
+        <v>-0.06626364583328703</v>
+      </c>
+      <c r="Z4">
+        <v>0.9512818089216067</v>
+      </c>
+      <c r="AA4">
+        <v>0.6404168769409497</v>
+      </c>
+      <c r="AB4">
+        <v>0.7454470028742411</v>
+      </c>
+      <c r="AC4">
+        <v>0.696443027514968</v>
+      </c>
+      <c r="AD4">
+        <v>0.6224661884490117</v>
+      </c>
+      <c r="AE4">
+        <v>0.9962758302548463</v>
+      </c>
+      <c r="AF4">
+        <v>0.5073915642571395</v>
+      </c>
+      <c r="AG4">
+        <v>0.6122472147102441</v>
+      </c>
+      <c r="AH4">
+        <v>0.09642359538078303</v>
+      </c>
+      <c r="AI4">
+        <v>0.04082633759019091</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.05766925930375111</v>
+      </c>
+      <c r="AK4">
+        <v>0.6851973577042383</v>
+      </c>
+      <c r="AL4">
+        <v>-0.1961558616402223</v>
+      </c>
+      <c r="AM4">
+        <v>0.9834283176934023</v>
+      </c>
+      <c r="AN4">
+        <v>0.7353376471315599</v>
+      </c>
+      <c r="AO4">
+        <v>0.9951489638193965</v>
+      </c>
+      <c r="AP4">
+        <v>0.7557242902244131</v>
+      </c>
+      <c r="AQ4">
+        <v>0.9717468589829095</v>
+      </c>
+      <c r="AR4">
+        <v>-0.1409964591010069</v>
+      </c>
+      <c r="AS4">
+        <v>-0.6471147546344563</v>
+      </c>
+      <c r="AT4">
+        <v>0.6876304563330555</v>
+      </c>
+      <c r="AU4">
+        <v>0.9902529681563623</v>
+      </c>
+      <c r="AV4">
+        <v>-0.2377092482105252</v>
+      </c>
+      <c r="AW4">
+        <v>-0.7189794349155478</v>
+      </c>
+      <c r="AX4">
+        <v>0.5798019787985318</v>
+      </c>
+      <c r="AY4">
+        <v>0.5417931786744071</v>
+      </c>
+      <c r="AZ4">
+        <v>0.01024289191788976</v>
+      </c>
+      <c r="BA4">
+        <v>-0.3706805065056102</v>
+      </c>
+      <c r="BB4">
+        <v>-0.8087758363160835</v>
+      </c>
+      <c r="BC4">
+        <v>0.8460172749189696</v>
+      </c>
+      <c r="BD4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:56">
       <c r="A5">
-        <v>-1.175609776417535</v>
+        <v>0.5503249460327402</v>
       </c>
       <c r="B5">
-        <v>0.1555520270486837</v>
+        <v>0.2868273704341421</v>
       </c>
       <c r="C5">
-        <v>-0.0644464287667121</v>
+        <v>0.5738223816039553</v>
       </c>
       <c r="D5">
-        <v>0.3553363052157871</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.1271337456501989</v>
-      </c>
-      <c r="F5" t="s">
+        <v>0.3567049515306133</v>
+      </c>
+      <c r="F5">
+        <v>0.9892507229772846</v>
+      </c>
+      <c r="G5">
+        <v>0.5766566453556018</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.09456693641360944</v>
+      </c>
+      <c r="J5">
+        <v>0.3719503996923715</v>
+      </c>
+      <c r="K5">
+        <v>0.5819240907519976</v>
+      </c>
+      <c r="L5">
+        <v>0.07882355319699964</v>
+      </c>
+      <c r="M5">
+        <v>0.673681380344352</v>
+      </c>
+      <c r="N5">
+        <v>-0.6547656118879558</v>
+      </c>
+      <c r="O5">
+        <v>-0.6708156354145322</v>
+      </c>
+      <c r="P5">
+        <v>-0.06880994220300939</v>
+      </c>
+      <c r="Q5">
+        <v>-0.6952905770254469</v>
+      </c>
+      <c r="R5">
+        <v>0.7762363009404666</v>
+      </c>
+      <c r="S5">
+        <v>0.9999931426394627</v>
+      </c>
+      <c r="T5">
+        <v>0.8565820942496031</v>
+      </c>
+      <c r="U5">
+        <v>0.9930359075108935</v>
+      </c>
+      <c r="V5">
+        <v>0.2336512713235043</v>
+      </c>
+      <c r="W5">
+        <v>0.2127569518394584</v>
+      </c>
+      <c r="X5">
+        <v>0.7712733854737395</v>
+      </c>
+      <c r="Y5">
+        <v>0.1798948641097834</v>
+      </c>
+      <c r="Z5">
+        <v>0.9644132729649705</v>
+      </c>
+      <c r="AA5">
+        <v>0.5849318101892766</v>
+      </c>
+      <c r="AB5">
+        <v>0.7898244746460106</v>
+      </c>
+      <c r="AC5">
+        <v>0.7018693272776226</v>
+      </c>
+      <c r="AD5">
+        <v>0.6864405785902623</v>
+      </c>
+      <c r="AE5">
+        <v>0.9891019008265264</v>
+      </c>
+      <c r="AF5">
+        <v>0.6616872097728932</v>
+      </c>
+      <c r="AG5">
+        <v>0.6896662065263105</v>
+      </c>
+      <c r="AH5">
+        <v>0.0825148228940001</v>
+      </c>
+      <c r="AI5">
+        <v>0.1174730052227347</v>
+      </c>
+      <c r="AJ5">
+        <v>0.09616050150042509</v>
+      </c>
+      <c r="AK5">
+        <v>0.6909143034599655</v>
+      </c>
+      <c r="AL5">
+        <v>0.06275198356320549</v>
+      </c>
+      <c r="AM5">
+        <v>0.9888464523789122</v>
+      </c>
+      <c r="AN5">
+        <v>0.6764136048056782</v>
+      </c>
+      <c r="AO5">
+        <v>0.999770267080435</v>
+      </c>
+      <c r="AP5">
+        <v>0.7990948886929748</v>
+      </c>
+      <c r="AQ5">
+        <v>0.9984905384133501</v>
+      </c>
+      <c r="AR5">
+        <v>-0.03174455283114746</v>
+      </c>
+      <c r="AS5">
+        <v>-0.6519620245102433</v>
+      </c>
+      <c r="AT5">
+        <v>0.7860251301800241</v>
+      </c>
+      <c r="AU5">
+        <v>0.9994383888521524</v>
+      </c>
+      <c r="AV5">
+        <v>-0.0531603808371261</v>
+      </c>
+      <c r="AW5">
+        <v>-0.6680645543189366</v>
+      </c>
+      <c r="AX5">
+        <v>0.7648681123841904</v>
+      </c>
+      <c r="AY5">
+        <v>0.5755350141568958</v>
+      </c>
+      <c r="AZ5">
+        <v>-0.06511491520591327</v>
+      </c>
+      <c r="BA5">
+        <v>-0.08659294495911757</v>
+      </c>
+      <c r="BB5">
+        <v>-0.6926241173980124</v>
+      </c>
+      <c r="BC5">
+        <v>0.7785657148280172</v>
+      </c>
+      <c r="BD5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:56">
       <c r="A6">
-        <v>0.06495539128117102</v>
+        <v>0.5273655952969688</v>
       </c>
       <c r="B6">
-        <v>0.0789486889287169</v>
+        <v>0.4191228870881082</v>
       </c>
       <c r="C6">
-        <v>1.018400170891542</v>
+        <v>0.5286297165772579</v>
       </c>
       <c r="D6">
-        <v>-0.1767022849442542</v>
+        <v>0.954130461384153</v>
       </c>
       <c r="E6">
-        <v>-0.1102773514992586</v>
-      </c>
-      <c r="F6" t="s">
+        <v>0.3256035350693003</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.5212041738222748</v>
+      </c>
+      <c r="H6">
+        <v>0.1895437003418325</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.5483895281674002</v>
+      </c>
+      <c r="K6">
+        <v>0.6391160445888882</v>
+      </c>
+      <c r="L6">
+        <v>-0.03665144277096125</v>
+      </c>
+      <c r="M6">
+        <v>0.7030837480630795</v>
+      </c>
+      <c r="N6">
+        <v>-0.5239830301624431</v>
+      </c>
+      <c r="O6">
+        <v>-0.7195541895160915</v>
+      </c>
+      <c r="P6">
+        <v>-0.01720815420475599</v>
+      </c>
+      <c r="Q6">
+        <v>-0.8924445544452764</v>
+      </c>
+      <c r="R6">
+        <v>0.8033729090488334</v>
+      </c>
+      <c r="S6">
+        <v>0.9999803054953954</v>
+      </c>
+      <c r="T6">
+        <v>0.7451690356458303</v>
+      </c>
+      <c r="U6">
+        <v>0.9962718771668626</v>
+      </c>
+      <c r="V6">
+        <v>0.3201873723736339</v>
+      </c>
+      <c r="W6">
+        <v>0.07421949263758339</v>
+      </c>
+      <c r="X6">
+        <v>0.7579984276170039</v>
+      </c>
+      <c r="Y6">
+        <v>-0.2233860628376481</v>
+      </c>
+      <c r="Z6">
+        <v>0.9714354471045987</v>
+      </c>
+      <c r="AA6">
+        <v>0.634276493870633</v>
+      </c>
+      <c r="AB6">
+        <v>0.6848602353105219</v>
+      </c>
+      <c r="AC6">
+        <v>0.870361169520153</v>
+      </c>
+      <c r="AD6">
+        <v>0.7203424098879826</v>
+      </c>
+      <c r="AE6">
+        <v>0.9998108420719035</v>
+      </c>
+      <c r="AF6">
+        <v>0.4835633397479319</v>
+      </c>
+      <c r="AG6">
+        <v>0.5656313832913542</v>
+      </c>
+      <c r="AH6">
+        <v>-0.04292253961361404</v>
+      </c>
+      <c r="AI6">
+        <v>0.2372663368503822</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.01208830782740111</v>
+      </c>
+      <c r="AK6">
+        <v>0.6989029866110603</v>
+      </c>
+      <c r="AL6">
+        <v>-0.306642274873786</v>
+      </c>
+      <c r="AM6">
+        <v>0.9882858010549953</v>
+      </c>
+      <c r="AN6">
+        <v>0.6986069680723284</v>
+      </c>
+      <c r="AO6">
+        <v>0.9685055100138084</v>
+      </c>
+      <c r="AP6">
+        <v>0.8606193675965685</v>
+      </c>
+      <c r="AQ6">
+        <v>0.8518892426911971</v>
+      </c>
+      <c r="AR6">
+        <v>0.08623044640723958</v>
+      </c>
+      <c r="AS6">
+        <v>-0.529318190137069</v>
+      </c>
+      <c r="AT6">
+        <v>0.7067156687891718</v>
+      </c>
+      <c r="AU6">
+        <v>0.9554620742652354</v>
+      </c>
+      <c r="AV6">
+        <v>-0.1645500186732161</v>
+      </c>
+      <c r="AW6">
+        <v>-0.723898325080665</v>
+      </c>
+      <c r="AX6">
+        <v>0.4664476072195665</v>
+      </c>
+      <c r="AY6">
+        <v>0.5815635161250203</v>
+      </c>
+      <c r="AZ6">
+        <v>-0.02348292147745361</v>
+      </c>
+      <c r="BA6">
+        <v>-0.4483124457044275</v>
+      </c>
+      <c r="BB6">
+        <v>-0.8952584560772139</v>
+      </c>
+      <c r="BC6">
+        <v>0.7996198569206423</v>
+      </c>
+      <c r="BD6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:56">
       <c r="A7">
-        <v>0.7522842474710878</v>
+        <v>0.5786027537687765</v>
       </c>
       <c r="B7">
-        <v>0.507080248125388</v>
+        <v>0.4642908334298133</v>
       </c>
       <c r="C7">
-        <v>-0.1112064084468449</v>
+        <v>0.5894098093480971</v>
       </c>
       <c r="D7">
-        <v>-0.1840062700387655</v>
+        <v>0.8851345414459997</v>
       </c>
       <c r="E7">
-        <v>-0.03259610385937829</v>
-      </c>
-      <c r="F7" t="s">
+        <v>0.3219242246925836</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6162889830770825</v>
+      </c>
+      <c r="H7">
+        <v>0.2871856151426819</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.3797923205734026</v>
+      </c>
+      <c r="K7">
+        <v>0.6932429672547115</v>
+      </c>
+      <c r="L7">
+        <v>0.007409508324197239</v>
+      </c>
+      <c r="M7">
+        <v>0.6223681490735048</v>
+      </c>
+      <c r="N7">
+        <v>-0.5159917996665475</v>
+      </c>
+      <c r="O7">
+        <v>-0.7006737929417809</v>
+      </c>
+      <c r="P7">
+        <v>-0.1822791081897975</v>
+      </c>
+      <c r="Q7">
+        <v>-0.8531731425715569</v>
+      </c>
+      <c r="R7">
+        <v>0.4578636052245854</v>
+      </c>
+      <c r="S7">
+        <v>0.9999341907110618</v>
+      </c>
+      <c r="T7">
+        <v>0.7258207589827542</v>
+      </c>
+      <c r="U7">
+        <v>0.9955650962979501</v>
+      </c>
+      <c r="V7">
+        <v>0.259642651739333</v>
+      </c>
+      <c r="W7">
+        <v>0.02847195285439564</v>
+      </c>
+      <c r="X7">
+        <v>0.5822661669261041</v>
+      </c>
+      <c r="Y7">
+        <v>-0.2155170446143479</v>
+      </c>
+      <c r="Z7">
+        <v>0.9581327195774332</v>
+      </c>
+      <c r="AA7">
+        <v>0.7014654956012745</v>
+      </c>
+      <c r="AB7">
+        <v>0.7873146115176968</v>
+      </c>
+      <c r="AC7">
+        <v>0.8527467627363343</v>
+      </c>
+      <c r="AD7">
+        <v>0.7082705358983862</v>
+      </c>
+      <c r="AE7">
+        <v>0.9818692395239456</v>
+      </c>
+      <c r="AF7">
+        <v>0.5152919133452736</v>
+      </c>
+      <c r="AG7">
+        <v>0.8923905911849415</v>
+      </c>
+      <c r="AH7">
+        <v>0.01888103105161977</v>
+      </c>
+      <c r="AI7">
+        <v>0.3493400088337906</v>
+      </c>
+      <c r="AJ7">
+        <v>0.1223827211959163</v>
+      </c>
+      <c r="AK7">
+        <v>0.6561668247474249</v>
+      </c>
+      <c r="AL7">
+        <v>-0.1226968289932974</v>
+      </c>
+      <c r="AM7">
+        <v>0.9808195168717997</v>
+      </c>
+      <c r="AN7">
+        <v>0.6313068633150041</v>
+      </c>
+      <c r="AO7">
+        <v>0.9727057938136506</v>
+      </c>
+      <c r="AP7">
+        <v>0.9362973897430484</v>
+      </c>
+      <c r="AQ7">
+        <v>0.8870533620842366</v>
+      </c>
+      <c r="AR7">
+        <v>0.5252770074667467</v>
+      </c>
+      <c r="AS7">
+        <v>-0.5061307231028114</v>
+      </c>
+      <c r="AT7">
+        <v>0.8292468818397459</v>
+      </c>
+      <c r="AU7">
+        <v>0.9699680062874663</v>
+      </c>
+      <c r="AV7">
+        <v>0.313488283090664</v>
+      </c>
+      <c r="AW7">
+        <v>-0.6924423871626467</v>
+      </c>
+      <c r="AX7">
+        <v>0.6684045453272238</v>
+      </c>
+      <c r="AY7">
+        <v>0.7906695365608161</v>
+      </c>
+      <c r="AZ7">
+        <v>-0.1709869850921597</v>
+      </c>
+      <c r="BA7">
+        <v>0.07310191757254958</v>
+      </c>
+      <c r="BB7">
+        <v>-0.8471327117666146</v>
+      </c>
+      <c r="BC7">
+        <v>0.4680326282771908</v>
+      </c>
+      <c r="BD7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:56">
       <c r="A8">
-        <v>-1.384045075172148</v>
+        <v>0.5199061927362836</v>
       </c>
       <c r="B8">
-        <v>0.5051798620542988</v>
+        <v>0.2607241567934335</v>
       </c>
       <c r="C8">
-        <v>0.5434878960052636</v>
+        <v>0.6843043605710611</v>
       </c>
       <c r="D8">
-        <v>0.139412633571673</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0.1543618289537597</v>
-      </c>
-      <c r="F8" t="s">
+        <v>0.3943522718765238</v>
+      </c>
+      <c r="F8">
+        <v>0.9992326264404379</v>
+      </c>
+      <c r="G8">
+        <v>0.6637128696915444</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.1361425604294071</v>
+      </c>
+      <c r="J8">
+        <v>0.2170371053930334</v>
+      </c>
+      <c r="K8">
+        <v>0.5212091308934478</v>
+      </c>
+      <c r="L8">
+        <v>0.125949632426394</v>
+      </c>
+      <c r="M8">
+        <v>0.6167083752710715</v>
+      </c>
+      <c r="N8">
+        <v>-0.6719997230608895</v>
+      </c>
+      <c r="O8">
+        <v>-0.6018474451495802</v>
+      </c>
+      <c r="P8">
+        <v>-0.1088491604634571</v>
+      </c>
+      <c r="Q8">
+        <v>-0.4759523654216241</v>
+      </c>
+      <c r="R8">
+        <v>0.7175053084058813</v>
+      </c>
+      <c r="S8">
+        <v>0.9997706278473035</v>
+      </c>
+      <c r="T8">
+        <v>0.9122789245397397</v>
+      </c>
+      <c r="U8">
+        <v>0.9932462581414542</v>
+      </c>
+      <c r="V8">
+        <v>0.2817556399084691</v>
+      </c>
+      <c r="W8">
+        <v>0.3678694616972663</v>
+      </c>
+      <c r="X8">
+        <v>0.7916249764841626</v>
+      </c>
+      <c r="Y8">
+        <v>0.5024953804351572</v>
+      </c>
+      <c r="Z8">
+        <v>0.9684288728430119</v>
+      </c>
+      <c r="AA8">
+        <v>0.5028116155357254</v>
+      </c>
+      <c r="AB8">
+        <v>0.8585972049089213</v>
+      </c>
+      <c r="AC8">
+        <v>0.6500160000536032</v>
+      </c>
+      <c r="AD8">
+        <v>0.716448983269189</v>
+      </c>
+      <c r="AE8">
+        <v>0.9724327199133176</v>
+      </c>
+      <c r="AF8">
+        <v>0.8125214879074102</v>
+      </c>
+      <c r="AG8">
+        <v>0.7813756618332058</v>
+      </c>
+      <c r="AH8">
+        <v>0.104674206304</v>
+      </c>
+      <c r="AI8">
+        <v>0.1685280595170736</v>
+      </c>
+      <c r="AJ8">
+        <v>0.2574956552237602</v>
+      </c>
+      <c r="AK8">
+        <v>0.7153862415632889</v>
+      </c>
+      <c r="AL8">
+        <v>0.3987885131378182</v>
+      </c>
+      <c r="AM8">
+        <v>0.9908123050371277</v>
+      </c>
+      <c r="AN8">
+        <v>0.5997075648813555</v>
+      </c>
+      <c r="AO8">
+        <v>0.9958538657381731</v>
+      </c>
+      <c r="AP8">
+        <v>0.8092978526436161</v>
+      </c>
+      <c r="AQ8">
+        <v>0.9711333804170076</v>
+      </c>
+      <c r="AR8">
+        <v>0.03366995587504317</v>
+      </c>
+      <c r="AS8">
+        <v>-0.6877060400968252</v>
+      </c>
+      <c r="AT8">
+        <v>0.8593765414949115</v>
+      </c>
+      <c r="AU8">
+        <v>0.9888060460263444</v>
+      </c>
+      <c r="AV8">
+        <v>0.1244462339799119</v>
+      </c>
+      <c r="AW8">
+        <v>-0.6188133224857056</v>
+      </c>
+      <c r="AX8">
+        <v>0.926052503209105</v>
+      </c>
+      <c r="AY8">
+        <v>0.6143144614460533</v>
+      </c>
+      <c r="AZ8">
+        <v>-0.1301140279382061</v>
+      </c>
+      <c r="BA8">
+        <v>0.2710998886488963</v>
+      </c>
+      <c r="BB8">
+        <v>-0.494678905021214</v>
+      </c>
+      <c r="BC8">
+        <v>0.7024225944173467</v>
+      </c>
+      <c r="BD8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:56">
       <c r="A9">
-        <v>1.395546064300245</v>
+        <v>0.6161855842323122</v>
       </c>
       <c r="B9">
-        <v>0.2426975624373594</v>
+        <v>0.4219484495470808</v>
       </c>
       <c r="C9">
-        <v>0.2700753963239798</v>
+        <v>0.4788363608279555</v>
       </c>
       <c r="D9">
-        <v>0.1565944220195196</v>
+        <v>0.9664596742445341</v>
       </c>
       <c r="E9">
-        <v>-0.1222780515201706</v>
-      </c>
-      <c r="F9" t="s">
+        <v>0.3370454955314653</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4896078831054014</v>
+      </c>
+      <c r="H9">
+        <v>0.1595014817209447</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.5446546676944145</v>
+      </c>
+      <c r="K9">
+        <v>0.6689316168543268</v>
+      </c>
+      <c r="L9">
+        <v>0.008690123392559347</v>
+      </c>
+      <c r="M9">
+        <v>0.7284359583721441</v>
+      </c>
+      <c r="N9">
+        <v>-0.5806383268837119</v>
+      </c>
+      <c r="O9">
+        <v>-0.7472190883987683</v>
+      </c>
+      <c r="P9">
+        <v>-0.05998484184920302</v>
+      </c>
+      <c r="Q9">
+        <v>-0.9024490021095821</v>
+      </c>
+      <c r="R9">
+        <v>0.8209628986521667</v>
+      </c>
+      <c r="S9">
+        <v>0.999966947266221</v>
+      </c>
+      <c r="T9">
+        <v>0.7491089787052466</v>
+      </c>
+      <c r="U9">
+        <v>0.9965354117539041</v>
+      </c>
+      <c r="V9">
+        <v>0.2167784904210483</v>
+      </c>
+      <c r="W9">
+        <v>-0.005841889008245894</v>
+      </c>
+      <c r="X9">
+        <v>0.7018596786737605</v>
+      </c>
+      <c r="Y9">
+        <v>-0.2834551645876132</v>
+      </c>
+      <c r="Z9">
+        <v>0.973592291847177</v>
+      </c>
+      <c r="AA9">
+        <v>0.6749530722470553</v>
+      </c>
+      <c r="AB9">
+        <v>0.6914182275355848</v>
+      </c>
+      <c r="AC9">
+        <v>0.8090850524650852</v>
+      </c>
+      <c r="AD9">
+        <v>0.6580592657894269</v>
+      </c>
+      <c r="AE9">
+        <v>0.9976403205745166</v>
+      </c>
+      <c r="AF9">
+        <v>0.4229380421631065</v>
+      </c>
+      <c r="AG9">
+        <v>0.5780942487350409</v>
+      </c>
+      <c r="AH9">
+        <v>0.01681998886410204</v>
+      </c>
+      <c r="AI9">
+        <v>0.134835601490952</v>
+      </c>
+      <c r="AJ9">
+        <v>-0.08898977449357162</v>
+      </c>
+      <c r="AK9">
+        <v>0.6401850904455699</v>
+      </c>
+      <c r="AL9">
+        <v>-0.3622314954574207</v>
+      </c>
+      <c r="AM9">
+        <v>0.9892062849817163</v>
+      </c>
+      <c r="AN9">
+        <v>0.7339821725237127</v>
+      </c>
+      <c r="AO9">
+        <v>0.9749377642121924</v>
+      </c>
+      <c r="AP9">
+        <v>0.8475250414776314</v>
+      </c>
+      <c r="AQ9">
+        <v>0.8747346169242062</v>
+      </c>
+      <c r="AR9">
+        <v>-0.01181127185040817</v>
+      </c>
+      <c r="AS9">
+        <v>-0.5739996270024619</v>
+      </c>
+      <c r="AT9">
+        <v>0.7082028919277572</v>
+      </c>
+      <c r="AU9">
+        <v>0.9606250393131956</v>
+      </c>
+      <c r="AV9">
+        <v>-0.2339775009071258</v>
+      </c>
+      <c r="AW9">
+        <v>-0.7417910678510365</v>
+      </c>
+      <c r="AX9">
+        <v>0.4841542220766193</v>
+      </c>
+      <c r="AY9">
+        <v>0.5207080371160959</v>
+      </c>
+      <c r="AZ9">
+        <v>-0.05186704009310939</v>
+      </c>
+      <c r="BA9">
+        <v>-0.494900184225756</v>
+      </c>
+      <c r="BB9">
+        <v>-0.8989165984734202</v>
+      </c>
+      <c r="BC9">
+        <v>0.8255781059895274</v>
+      </c>
+      <c r="BD9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:56">
       <c r="A10">
-        <v>1.083194354871956</v>
+        <v>0.6125421236361667</v>
       </c>
       <c r="B10">
-        <v>0.3609484615105997</v>
+        <v>0.3308004221647706</v>
       </c>
       <c r="C10">
-        <v>0.2389046647733641</v>
+        <v>0.4495345138241518</v>
       </c>
       <c r="D10">
-        <v>0.0438269765960545</v>
+        <v>0.9837677271887364</v>
       </c>
       <c r="E10">
-        <v>0.09610876909250834</v>
-      </c>
-      <c r="F10" t="s">
+        <v>0.3635921255295757</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4553263886808637</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.02471599166832063</v>
+      </c>
+      <c r="J10">
+        <v>0.5113714463945979</v>
+      </c>
+      <c r="K10">
+        <v>0.6159238397350518</v>
+      </c>
+      <c r="L10">
+        <v>0.03380427455091746</v>
+      </c>
+      <c r="M10">
+        <v>0.7355147334283202</v>
+      </c>
+      <c r="N10">
+        <v>-0.6468942827257904</v>
+      </c>
+      <c r="O10">
+        <v>-0.7440625490944588</v>
+      </c>
+      <c r="P10">
+        <v>-0.05704900984402087</v>
+      </c>
+      <c r="Q10">
+        <v>-0.8675922334519823</v>
+      </c>
+      <c r="R10">
+        <v>0.8739223284170943</v>
+      </c>
+      <c r="S10">
+        <v>0.9999922653410241</v>
+      </c>
+      <c r="T10">
+        <v>0.8081763074222068</v>
+      </c>
+      <c r="U10">
+        <v>0.9867662979001292</v>
+      </c>
+      <c r="V10">
+        <v>0.2023270190146937</v>
+      </c>
+      <c r="W10">
+        <v>0.06805497620023365</v>
+      </c>
+      <c r="X10">
+        <v>0.7513848196309877</v>
+      </c>
+      <c r="Y10">
+        <v>-0.1426136369409003</v>
+      </c>
+      <c r="Z10">
+        <v>0.9211948443087584</v>
+      </c>
+      <c r="AA10">
+        <v>0.6190175926286516</v>
+      </c>
+      <c r="AB10">
+        <v>0.7019850551952002</v>
+      </c>
+      <c r="AC10">
+        <v>0.7402760647727958</v>
+      </c>
+      <c r="AD10">
+        <v>0.6425756251633382</v>
+      </c>
+      <c r="AE10">
+        <v>0.995872281634358</v>
+      </c>
+      <c r="AF10">
+        <v>0.4676637646088312</v>
+      </c>
+      <c r="AG10">
+        <v>0.5153301066069653</v>
+      </c>
+      <c r="AH10">
+        <v>0.03773486298906755</v>
+      </c>
+      <c r="AI10">
+        <v>0.04085412157650722</v>
+      </c>
+      <c r="AJ10">
+        <v>-0.09461863587060004</v>
+      </c>
+      <c r="AK10">
+        <v>0.6344449361037563</v>
+      </c>
+      <c r="AL10">
+        <v>-0.3012178381122007</v>
+      </c>
+      <c r="AM10">
+        <v>0.9720964324290898</v>
+      </c>
+      <c r="AN10">
+        <v>0.738173752546127</v>
+      </c>
+      <c r="AO10">
+        <v>0.9908168991631283</v>
+      </c>
+      <c r="AP10">
+        <v>0.7982424172425405</v>
+      </c>
+      <c r="AQ10">
+        <v>0.9404532617556334</v>
+      </c>
+      <c r="AR10">
+        <v>-0.1946716049870749</v>
+      </c>
+      <c r="AS10">
+        <v>-0.6438899787265471</v>
+      </c>
+      <c r="AT10">
+        <v>0.7094698970753766</v>
+      </c>
+      <c r="AU10">
+        <v>0.9777781379276631</v>
+      </c>
+      <c r="AV10">
+        <v>-0.3255076077050831</v>
+      </c>
+      <c r="AW10">
+        <v>-0.7414290522127136</v>
+      </c>
+      <c r="AX10">
+        <v>0.5459617011632076</v>
+      </c>
+      <c r="AY10">
+        <v>0.4354175761498538</v>
+      </c>
+      <c r="AZ10">
+        <v>-0.05312187633743463</v>
+      </c>
+      <c r="BA10">
+        <v>-0.5164993245163537</v>
+      </c>
+      <c r="BB10">
+        <v>-0.8656296866198752</v>
+      </c>
+      <c r="BC10">
+        <v>0.875827312442364</v>
+      </c>
+      <c r="BD10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:56">
       <c r="A11">
-        <v>-0.1181627099546504</v>
+        <v>0.5030365760173534</v>
       </c>
       <c r="B11">
-        <v>-0.8565148948013409</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.4473494836059416</v>
+        <v>0.4957843588106506</v>
       </c>
       <c r="D11">
-        <v>-0.09655150832614325</v>
+        <v>0.9694176924365163</v>
       </c>
       <c r="E11">
-        <v>-0.0848394904264534</v>
-      </c>
-      <c r="F11" t="s">
+        <v>0.03303304155917117</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4861330390287246</v>
+      </c>
+      <c r="H11">
+        <v>0.02036588820019383</v>
+      </c>
+      <c r="I11">
+        <v>0.01733265698777321</v>
+      </c>
+      <c r="J11">
+        <v>0.1844965166038018</v>
+      </c>
+      <c r="K11">
+        <v>0.7386373405148663</v>
+      </c>
+      <c r="L11">
+        <v>0.0986559585722795</v>
+      </c>
+      <c r="M11">
+        <v>0.6679242786584743</v>
+      </c>
+      <c r="N11">
+        <v>-0.7584650066585156</v>
+      </c>
+      <c r="O11">
+        <v>-0.6733495625861612</v>
+      </c>
+      <c r="P11">
+        <v>-0.120774759524369</v>
+      </c>
+      <c r="Q11">
+        <v>-0.5768937918779552</v>
+      </c>
+      <c r="R11">
+        <v>0.5920140197505215</v>
+      </c>
+      <c r="S11">
+        <v>0.9999342778353016</v>
+      </c>
+      <c r="T11">
+        <v>0.7436854499728615</v>
+      </c>
+      <c r="U11">
+        <v>0.9950409881260788</v>
+      </c>
+      <c r="V11">
+        <v>-0.1209083582487796</v>
+      </c>
+      <c r="W11">
+        <v>0.001019587320334222</v>
+      </c>
+      <c r="X11">
+        <v>0.5799597945466373</v>
+      </c>
+      <c r="Y11">
+        <v>0.1245049701790523</v>
+      </c>
+      <c r="Z11">
+        <v>0.9805619322219082</v>
+      </c>
+      <c r="AA11">
+        <v>0.7308603872785927</v>
+      </c>
+      <c r="AB11">
+        <v>0.8064933007128557</v>
+      </c>
+      <c r="AC11">
+        <v>0.5737073549600907</v>
+      </c>
+      <c r="AD11">
+        <v>0.6692875985719641</v>
+      </c>
+      <c r="AE11">
+        <v>0.9759220991151197</v>
+      </c>
+      <c r="AF11">
+        <v>0.75592038839649</v>
+      </c>
+      <c r="AG11">
+        <v>0.8604017388316003</v>
+      </c>
+      <c r="AH11">
+        <v>0.08724067525103642</v>
+      </c>
+      <c r="AI11">
+        <v>-0.02157275280627236</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1004802120112498</v>
+      </c>
+      <c r="AK11">
+        <v>0.658113038531046</v>
+      </c>
+      <c r="AL11">
+        <v>0.2225793366435825</v>
+      </c>
+      <c r="AM11">
+        <v>0.9952154683498424</v>
+      </c>
+      <c r="AN11">
+        <v>0.6593479947410489</v>
+      </c>
+      <c r="AO11">
+        <v>0.9925398810153353</v>
+      </c>
+      <c r="AP11">
+        <v>0.7385466096781925</v>
+      </c>
+      <c r="AQ11">
+        <v>0.9698860502406045</v>
+      </c>
+      <c r="AR11">
+        <v>0.07621223647236541</v>
+      </c>
+      <c r="AS11">
+        <v>-0.7658868803871105</v>
+      </c>
+      <c r="AT11">
+        <v>0.8152359948395275</v>
+      </c>
+      <c r="AU11">
+        <v>0.9923454120501455</v>
+      </c>
+      <c r="AV11">
+        <v>0.1972094957335755</v>
+      </c>
+      <c r="AW11">
+        <v>-0.6817814608853578</v>
+      </c>
+      <c r="AX11">
+        <v>0.880514209079023</v>
+      </c>
+      <c r="AY11">
+        <v>0.7285278724162633</v>
+      </c>
+      <c r="AZ11">
+        <v>-0.1321476283625517</v>
+      </c>
+      <c r="BA11">
+        <v>0.3167679515349318</v>
+      </c>
+      <c r="BB11">
+        <v>-0.5862204875326547</v>
+      </c>
+      <c r="BC11">
+        <v>0.5827353690773097</v>
+      </c>
+      <c r="BD11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:56">
       <c r="A12">
-        <v>-0.229075450112245</v>
+        <v>0.4896768092336395</v>
       </c>
       <c r="B12">
-        <v>-0.2348543394962437</v>
+        <v>0.1479085356403576</v>
       </c>
       <c r="C12">
-        <v>-0.5315286909402757</v>
+        <v>0.5847841686679035</v>
       </c>
       <c r="D12">
-        <v>0.007715732159584824</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>-0.06202599751200395</v>
-      </c>
-      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.968346731956546</v>
+      </c>
+      <c r="G12">
+        <v>0.5663562613500241</v>
+      </c>
+      <c r="H12">
+        <v>0.1621192929155319</v>
+      </c>
+      <c r="I12">
+        <v>0.07820201127300963</v>
+      </c>
+      <c r="J12">
+        <v>0.1905575144420479</v>
+      </c>
+      <c r="K12">
+        <v>0.7835665764048994</v>
+      </c>
+      <c r="L12">
+        <v>0.1300174774211547</v>
+      </c>
+      <c r="M12">
+        <v>0.652788946127835</v>
+      </c>
+      <c r="N12">
+        <v>-0.678234924028969</v>
+      </c>
+      <c r="O12">
+        <v>-0.6287778184146502</v>
+      </c>
+      <c r="P12">
+        <v>-0.08571259191163857</v>
+      </c>
+      <c r="Q12">
+        <v>-0.585522536569876</v>
+      </c>
+      <c r="R12">
+        <v>0.4856268434307895</v>
+      </c>
+      <c r="S12">
+        <v>0.9999320534593614</v>
+      </c>
+      <c r="T12">
+        <v>0.7179113343343114</v>
+      </c>
+      <c r="U12">
+        <v>0.9821690270765874</v>
+      </c>
+      <c r="V12">
+        <v>-0.074877174271981</v>
+      </c>
+      <c r="W12">
+        <v>-0.009569623925565856</v>
+      </c>
+      <c r="X12">
+        <v>0.5518598360698309</v>
+      </c>
+      <c r="Y12">
+        <v>0.04487111134682265</v>
+      </c>
+      <c r="Z12">
+        <v>0.9236472768348561</v>
+      </c>
+      <c r="AA12">
+        <v>0.7762706753529618</v>
+      </c>
+      <c r="AB12">
+        <v>0.8359835769235009</v>
+      </c>
+      <c r="AC12">
+        <v>0.6404251671088537</v>
+      </c>
+      <c r="AD12">
+        <v>0.689232535697847</v>
+      </c>
+      <c r="AE12">
+        <v>0.9767187091893142</v>
+      </c>
+      <c r="AF12">
+        <v>0.7276468749779504</v>
+      </c>
+      <c r="AG12">
+        <v>0.9298860075537198</v>
+      </c>
+      <c r="AH12">
+        <v>0.1184504715304662</v>
+      </c>
+      <c r="AI12">
+        <v>0.1139302042168456</v>
+      </c>
+      <c r="AJ12">
+        <v>0.1785924092660216</v>
+      </c>
+      <c r="AK12">
+        <v>0.6987997768789096</v>
+      </c>
+      <c r="AL12">
+        <v>0.2318816652321991</v>
+      </c>
+      <c r="AM12">
+        <v>0.979227558868038</v>
+      </c>
+      <c r="AN12">
+        <v>0.6439138581112007</v>
+      </c>
+      <c r="AO12">
+        <v>0.9978636491418675</v>
+      </c>
+      <c r="AP12">
+        <v>0.7902741182349861</v>
+      </c>
+      <c r="AQ12">
+        <v>0.9928285540090632</v>
+      </c>
+      <c r="AR12">
+        <v>0.3130077131157123</v>
+      </c>
+      <c r="AS12">
+        <v>-0.6867550189169722</v>
+      </c>
+      <c r="AT12">
+        <v>0.8286176039279599</v>
+      </c>
+      <c r="AU12">
+        <v>0.9985176410018519</v>
+      </c>
+      <c r="AV12">
+        <v>0.374387160840415</v>
+      </c>
+      <c r="AW12">
+        <v>-0.6377994975588367</v>
+      </c>
+      <c r="AX12">
+        <v>0.8578594908556597</v>
+      </c>
+      <c r="AY12">
+        <v>0.829324862738414</v>
+      </c>
+      <c r="AZ12">
+        <v>-0.09732098948247038</v>
+      </c>
+      <c r="BA12">
+        <v>0.4243027374289387</v>
+      </c>
+      <c r="BB12">
+        <v>-0.5949326687319236</v>
+      </c>
+      <c r="BC12">
+        <v>0.4754035856459732</v>
+      </c>
+      <c r="BD12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:56">
       <c r="A13">
-        <v>0.5543787745226978</v>
+        <v>0.4835961046743168</v>
       </c>
       <c r="B13">
-        <v>-0.003181651446204666</v>
+        <v>0.1739329919216076</v>
       </c>
       <c r="C13">
-        <v>-0.1137064838100931</v>
+        <v>0.5757089563530768</v>
       </c>
       <c r="D13">
-        <v>0.1960103572456168</v>
+        <v>0.9912447762213732</v>
       </c>
       <c r="E13">
-        <v>-0.1664810034022458</v>
-      </c>
-      <c r="F13" t="s">
+        <v>0.1081283668492461</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5751677676178376</v>
+      </c>
+      <c r="H13">
+        <v>0.06685895277244312</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.2092376576761045</v>
+      </c>
+      <c r="K13">
+        <v>0.7036194739531207</v>
+      </c>
+      <c r="L13">
+        <v>0.09379202916176314</v>
+      </c>
+      <c r="M13">
+        <v>0.6417800190258163</v>
+      </c>
+      <c r="N13">
+        <v>-0.6491211526595567</v>
+      </c>
+      <c r="O13">
+        <v>-0.6450581708771924</v>
+      </c>
+      <c r="P13">
+        <v>-0.1021139699702076</v>
+      </c>
+      <c r="Q13">
+        <v>-0.6407875787686046</v>
+      </c>
+      <c r="R13">
+        <v>0.5608922656191119</v>
+      </c>
+      <c r="S13">
+        <v>0.9999986717882409</v>
+      </c>
+      <c r="T13">
+        <v>0.7734385149509552</v>
+      </c>
+      <c r="U13">
+        <v>0.9965024309245837</v>
+      </c>
+      <c r="V13">
+        <v>0.08379098944290353</v>
+      </c>
+      <c r="W13">
+        <v>0.08910015616442632</v>
+      </c>
+      <c r="X13">
+        <v>0.6350132015308778</v>
+      </c>
+      <c r="Y13">
+        <v>0.09465227678937448</v>
+      </c>
+      <c r="Z13">
+        <v>0.9829334396469424</v>
+      </c>
+      <c r="AA13">
+        <v>0.7024604031771577</v>
+      </c>
+      <c r="AB13">
+        <v>0.823702044095476</v>
+      </c>
+      <c r="AC13">
+        <v>0.6964494063327952</v>
+      </c>
+      <c r="AD13">
+        <v>0.7002637084360225</v>
+      </c>
+      <c r="AE13">
+        <v>0.9808100842853044</v>
+      </c>
+      <c r="AF13">
+        <v>0.7042332149536672</v>
+      </c>
+      <c r="AG13">
+        <v>0.8768465346277462</v>
+      </c>
+      <c r="AH13">
+        <v>0.0921692359943278</v>
+      </c>
+      <c r="AI13">
+        <v>0.166767839246523</v>
+      </c>
+      <c r="AJ13">
+        <v>0.1720199406188452</v>
+      </c>
+      <c r="AK13">
+        <v>0.6973453255764489</v>
+      </c>
+      <c r="AL13">
+        <v>0.1775098345546351</v>
+      </c>
+      <c r="AM13">
+        <v>0.9948680846602143</v>
+      </c>
+      <c r="AN13">
+        <v>0.6405292503965428</v>
+      </c>
+      <c r="AO13">
+        <v>0.9999858002612741</v>
+      </c>
+      <c r="AP13">
+        <v>0.8229930531535955</v>
+      </c>
+      <c r="AQ13">
+        <v>0.999940542896254</v>
+      </c>
+      <c r="AR13">
+        <v>0.2656755910246896</v>
+      </c>
+      <c r="AS13">
+        <v>-0.6503600955049931</v>
+      </c>
+      <c r="AT13">
+        <v>0.8260085681255396</v>
+      </c>
+      <c r="AU13">
+        <v>0.9999844557646551</v>
+      </c>
+      <c r="AV13">
+        <v>0.2708094011010572</v>
+      </c>
+      <c r="AW13">
+        <v>-0.6463027395510506</v>
+      </c>
+      <c r="AX13">
+        <v>0.8291385037322628</v>
+      </c>
+      <c r="AY13">
+        <v>0.7662862468203802</v>
+      </c>
+      <c r="AZ13">
+        <v>-0.1037351679115186</v>
+      </c>
+      <c r="BA13">
+        <v>0.2761725269356754</v>
+      </c>
+      <c r="BB13">
+        <v>-0.6420379957497547</v>
+      </c>
+      <c r="BC13">
+        <v>0.5595421833479822</v>
+      </c>
+      <c r="BD13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:56">
       <c r="A14">
-        <v>-0.8978468511190866</v>
+        <v>0.4044052956931837</v>
       </c>
       <c r="B14">
-        <v>1.124684196671407</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.8134283426685033</v>
+        <v>0.735629896513209</v>
       </c>
       <c r="D14">
-        <v>-0.2248840478160939</v>
+        <v>0.965971102081908</v>
       </c>
       <c r="E14">
-        <v>0.04070928574358189</v>
-      </c>
-      <c r="F14" t="s">
+        <v>0.4392788063337224</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7391006763588431</v>
+      </c>
+      <c r="H14">
+        <v>0.2093319625084158</v>
+      </c>
+      <c r="I14">
+        <v>0.4757163725508042</v>
+      </c>
+      <c r="J14">
+        <v>0.1908338898615572</v>
+      </c>
+      <c r="K14">
+        <v>0.2195007036057763</v>
+      </c>
+      <c r="L14">
+        <v>0.06043080591295322</v>
+      </c>
+      <c r="M14">
+        <v>0.5358609921515112</v>
+      </c>
+      <c r="N14">
+        <v>-0.8434639403305306</v>
+      </c>
+      <c r="O14">
+        <v>-0.5627604002316935</v>
+      </c>
+      <c r="P14">
+        <v>-0.1069359856531852</v>
+      </c>
+      <c r="Q14">
+        <v>-0.05506097115469825</v>
+      </c>
+      <c r="R14">
+        <v>0.6784390531289328</v>
+      </c>
+      <c r="S14">
+        <v>0.999997811105402</v>
+      </c>
+      <c r="T14">
+        <v>0.9870939059603069</v>
+      </c>
+      <c r="U14">
+        <v>0.9413374354364084</v>
+      </c>
+      <c r="V14">
+        <v>0.3389441657104212</v>
+      </c>
+      <c r="W14">
+        <v>0.6829344334719945</v>
+      </c>
+      <c r="X14">
+        <v>0.9465455661913001</v>
+      </c>
+      <c r="Y14">
+        <v>0.9620464100044651</v>
+      </c>
+      <c r="Z14">
+        <v>0.8656579824858107</v>
+      </c>
+      <c r="AA14">
+        <v>0.2174589342584403</v>
+      </c>
+      <c r="AB14">
+        <v>0.8751456704218841</v>
+      </c>
+      <c r="AC14">
+        <v>0.4852328253327985</v>
+      </c>
+      <c r="AD14">
+        <v>0.7911012604043819</v>
+      </c>
+      <c r="AE14">
+        <v>0.9859865482427894</v>
+      </c>
+      <c r="AF14">
+        <v>0.9933307764770495</v>
+      </c>
+      <c r="AG14">
+        <v>0.7743126412638329</v>
+      </c>
+      <c r="AH14">
+        <v>0.05834218201515968</v>
+      </c>
+      <c r="AI14">
+        <v>0.001569887731535037</v>
+      </c>
+      <c r="AJ14">
+        <v>0.3963591180189328</v>
+      </c>
+      <c r="AK14">
+        <v>0.7821620690649403</v>
+      </c>
+      <c r="AL14">
+        <v>0.8135203781707313</v>
+      </c>
+      <c r="AM14">
+        <v>0.9838242382196716</v>
+      </c>
+      <c r="AN14">
+        <v>0.5340932641613982</v>
+      </c>
+      <c r="AO14">
+        <v>0.9187166637619517</v>
+      </c>
+      <c r="AP14">
+        <v>0.6243021726136918</v>
+      </c>
+      <c r="AQ14">
+        <v>0.5828128274538674</v>
+      </c>
+      <c r="AR14">
+        <v>-0.1775917372521555</v>
+      </c>
+      <c r="AS14">
+        <v>-0.8445860562805195</v>
+      </c>
+      <c r="AT14">
+        <v>0.8820594872773408</v>
+      </c>
+      <c r="AU14">
+        <v>0.8563522116697789</v>
+      </c>
+      <c r="AV14">
+        <v>0.2254833272531744</v>
+      </c>
+      <c r="AW14">
+        <v>-0.5644887184332454</v>
+      </c>
+      <c r="AX14">
+        <v>0.9986455995261334</v>
+      </c>
+      <c r="AY14">
+        <v>0.6578945511314177</v>
+      </c>
+      <c r="AZ14">
+        <v>-0.1090160696113346</v>
+      </c>
+      <c r="BA14">
+        <v>0.6961866976526411</v>
+      </c>
+      <c r="BB14">
+        <v>-0.05714999213748254</v>
+      </c>
+      <c r="BC14">
+        <v>0.6769004344745894</v>
+      </c>
+      <c r="BD14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:56">
       <c r="A15">
-        <v>-1.214267130075492</v>
+        <v>0.4675769254503451</v>
       </c>
       <c r="B15">
-        <v>-0.6254253284497149</v>
+        <v>0.1410593072107318</v>
       </c>
       <c r="C15">
-        <v>0.8469811931058914</v>
+        <v>0.596777839377103</v>
       </c>
       <c r="D15">
-        <v>-0.1875940324736835</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>-0.04128058367036361</v>
-      </c>
-      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.9796145729911243</v>
+      </c>
+      <c r="G15">
+        <v>0.5676802250578831</v>
+      </c>
+      <c r="H15">
+        <v>0.134799947005822</v>
+      </c>
+      <c r="I15">
+        <v>0.04154539776613201</v>
+      </c>
+      <c r="J15">
+        <v>0.1659398971609559</v>
+      </c>
+      <c r="K15">
+        <v>0.7649057514044627</v>
+      </c>
+      <c r="L15">
+        <v>0.1253818903945413</v>
+      </c>
+      <c r="M15">
+        <v>0.6462613987221257</v>
+      </c>
+      <c r="N15">
+        <v>-0.6598088057208522</v>
+      </c>
+      <c r="O15">
+        <v>-0.6205586094597264</v>
+      </c>
+      <c r="P15">
+        <v>-0.08545988099354146</v>
+      </c>
+      <c r="Q15">
+        <v>-0.5853960888499981</v>
+      </c>
+      <c r="R15">
+        <v>0.4928835566295043</v>
+      </c>
+      <c r="S15">
+        <v>0.9997447994255048</v>
+      </c>
+      <c r="T15">
+        <v>0.7349643288463662</v>
+      </c>
+      <c r="U15">
+        <v>0.9858843642279967</v>
+      </c>
+      <c r="V15">
+        <v>-0.02066149719712464</v>
+      </c>
+      <c r="W15">
+        <v>0.03044175262780783</v>
+      </c>
+      <c r="X15">
+        <v>0.5764169373704389</v>
+      </c>
+      <c r="Y15">
+        <v>0.07446381859682151</v>
+      </c>
+      <c r="Z15">
+        <v>0.93747456825752</v>
+      </c>
+      <c r="AA15">
+        <v>0.7501589763294314</v>
+      </c>
+      <c r="AB15">
+        <v>0.8381235004317842</v>
+      </c>
+      <c r="AC15">
+        <v>0.6627755503231744</v>
+      </c>
+      <c r="AD15">
+        <v>0.7001650990634501</v>
+      </c>
+      <c r="AE15">
+        <v>0.9777639143240608</v>
+      </c>
+      <c r="AF15">
+        <v>0.7309514062594676</v>
+      </c>
+      <c r="AG15">
+        <v>0.9250276434579237</v>
+      </c>
+      <c r="AH15">
+        <v>0.1029375475208334</v>
+      </c>
+      <c r="AI15">
+        <v>0.14702206906182</v>
+      </c>
+      <c r="AJ15">
+        <v>0.1973621094501881</v>
+      </c>
+      <c r="AK15">
+        <v>0.7050949180015088</v>
+      </c>
+      <c r="AL15">
+        <v>0.240375544853091</v>
+      </c>
+      <c r="AM15">
+        <v>0.9825153476693809</v>
+      </c>
+      <c r="AN15">
+        <v>0.6288572078043695</v>
+      </c>
+      <c r="AO15">
+        <v>0.9986941976821577</v>
+      </c>
+      <c r="AP15">
+        <v>0.8050716702542187</v>
+      </c>
+      <c r="AQ15">
+        <v>0.9954723031436004</v>
+      </c>
+      <c r="AR15">
+        <v>0.328609852407599</v>
+      </c>
+      <c r="AS15">
+        <v>-0.6766157698117362</v>
+      </c>
+      <c r="AT15">
+        <v>0.8343241714872121</v>
+      </c>
+      <c r="AU15">
+        <v>0.9990283542707732</v>
+      </c>
+      <c r="AV15">
+        <v>0.3764308408911581</v>
+      </c>
+      <c r="AW15">
+        <v>-0.6381149030934439</v>
+      </c>
+      <c r="AX15">
+        <v>0.857809296490006</v>
+      </c>
+      <c r="AY15">
+        <v>0.8247903660893278</v>
+      </c>
+      <c r="AZ15">
+        <v>-0.1079460443484195</v>
+      </c>
+      <c r="BA15">
+        <v>0.4168954201840904</v>
+      </c>
+      <c r="BB15">
+        <v>-0.6035619812511382</v>
+      </c>
+      <c r="BC15">
+        <v>0.4731017823247558</v>
+      </c>
+      <c r="BD15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:56">
       <c r="A16">
-        <v>-0.08946275117270334</v>
+        <v>0.5608333179355404</v>
       </c>
       <c r="B16">
-        <v>0.03441640488013157</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2694810031973771</v>
+        <v>0.3573355307335507</v>
       </c>
       <c r="D16">
-        <v>0.1116597438947088</v>
+        <v>0.9414010450625045</v>
       </c>
       <c r="E16">
-        <v>-0.06546902300932564</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
+        <v>0.1036873205595717</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.363610818811607</v>
+      </c>
+      <c r="H16">
+        <v>0.1545018108324752</v>
+      </c>
+      <c r="I16">
+        <v>0.1909597499155245</v>
+      </c>
+      <c r="J16">
+        <v>0.5658972305990749</v>
+      </c>
+      <c r="K16">
+        <v>0.7882321525297972</v>
+      </c>
+      <c r="L16">
+        <v>-0.03930630485231134</v>
+      </c>
+      <c r="M16">
+        <v>0.7525648599893855</v>
+      </c>
+      <c r="N16">
+        <v>-0.841113411283204</v>
+      </c>
+      <c r="O16">
+        <v>-0.7743069022252151</v>
+      </c>
+      <c r="P16">
+        <v>-0.03456266417855303</v>
+      </c>
+      <c r="Q16">
+        <v>-0.702066736745069</v>
+      </c>
+      <c r="R16">
+        <v>0.722426104589125</v>
+      </c>
+      <c r="S16">
+        <v>0.9999879737789317</v>
+      </c>
+      <c r="T16">
+        <v>0.58391994044825</v>
+      </c>
+      <c r="U16">
+        <v>0.9984333862618798</v>
+      </c>
+      <c r="V16">
+        <v>-0.330160039026842</v>
+      </c>
+      <c r="W16">
+        <v>-0.2209160907364957</v>
+      </c>
+      <c r="X16">
+        <v>0.5877669211047756</v>
+      </c>
+      <c r="Y16">
+        <v>-0.1151740420509544</v>
+      </c>
+      <c r="Z16">
+        <v>0.9949414487405155</v>
+      </c>
+      <c r="AA16">
+        <v>0.7912406800862886</v>
+      </c>
+      <c r="AB16">
+        <v>0.628428692054341</v>
+      </c>
+      <c r="AC16">
+        <v>0.5735018778786927</v>
+      </c>
+      <c r="AD16">
+        <v>0.6627563696649007</v>
+      </c>
+      <c r="AE16">
+        <v>0.9999887335673191</v>
+      </c>
+      <c r="AF16">
+        <v>0.7391564908586166</v>
+      </c>
+      <c r="AG16">
+        <v>0.6625178891343582</v>
+      </c>
+      <c r="AH16">
+        <v>-0.03440530798486313</v>
+      </c>
+      <c r="AI16">
+        <v>-0.276827076810527</v>
+      </c>
+      <c r="AJ16">
+        <v>-0.1659991365727752</v>
+      </c>
+      <c r="AK16">
+        <v>0.632114043395076</v>
+      </c>
+      <c r="AL16">
+        <v>-0.05941264711490943</v>
+      </c>
+      <c r="AM16">
+        <v>0.9990036351957711</v>
+      </c>
+      <c r="AN16">
+        <v>0.7557853892909132</v>
+      </c>
+      <c r="AO16">
+        <v>0.9935409089307335</v>
+      </c>
+      <c r="AP16">
+        <v>0.5696067636390391</v>
+      </c>
+      <c r="AQ16">
+        <v>0.9756693246657686</v>
+      </c>
+      <c r="AR16">
+        <v>-0.2336664844517727</v>
+      </c>
+      <c r="AS16">
+        <v>-0.8384507544441724</v>
+      </c>
+      <c r="AT16">
+        <v>0.659194282802003</v>
+      </c>
+      <c r="AU16">
+        <v>0.9942463630169971</v>
+      </c>
+      <c r="AV16">
+        <v>-0.1218240472216533</v>
+      </c>
+      <c r="AW16">
+        <v>-0.7711940899277947</v>
+      </c>
+      <c r="AX16">
+        <v>0.735950988737031</v>
+      </c>
+      <c r="AY16">
+        <v>0.6660660464701949</v>
+      </c>
+      <c r="AZ16">
+        <v>-0.02966086451498893</v>
+      </c>
+      <c r="BA16">
+        <v>-0.01480340770491609</v>
+      </c>
+      <c r="BB16">
+        <v>-0.6985658767048126</v>
+      </c>
+      <c r="BC16">
+        <v>0.7258084954214874</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:56">
       <c r="A17">
-        <v>-0.2147352042717159</v>
+        <v>0.4918103357815682</v>
       </c>
       <c r="B17">
-        <v>-0.6875542951599238</v>
+        <v>0.298790977382891</v>
       </c>
       <c r="C17">
-        <v>-0.4602597451216613</v>
+        <v>0.5309923627083595</v>
       </c>
       <c r="D17">
-        <v>0.1389837810984315</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>-0.06124221788119844</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
+        <v>0.2411050950378052</v>
+      </c>
+      <c r="F17">
+        <v>0.9593535642698513</v>
+      </c>
+      <c r="G17">
+        <v>0.5077727045181238</v>
+      </c>
+      <c r="H17">
+        <v>0.02314824949614169</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.4093750693420764</v>
+      </c>
+      <c r="K17">
+        <v>0.6424038130639281</v>
+      </c>
+      <c r="L17">
+        <v>0.06593192616341331</v>
+      </c>
+      <c r="M17">
+        <v>0.7021696016158262</v>
+      </c>
+      <c r="N17">
+        <v>-0.5824206249237102</v>
+      </c>
+      <c r="O17">
+        <v>-0.6707828691896445</v>
+      </c>
+      <c r="P17">
+        <v>-0.0007037983668990667</v>
+      </c>
+      <c r="Q17">
+        <v>-0.7725459007956168</v>
+      </c>
+      <c r="R17">
+        <v>0.7792223246447855</v>
+      </c>
+      <c r="S17">
+        <v>0.9998316904491844</v>
+      </c>
+      <c r="T17">
+        <v>0.8070537251281491</v>
+      </c>
+      <c r="U17">
+        <v>0.9967367054678105</v>
+      </c>
+      <c r="V17">
+        <v>0.2488204344344479</v>
+      </c>
+      <c r="W17">
+        <v>0.1374650141030631</v>
+      </c>
+      <c r="X17">
+        <v>0.7659140103984026</v>
+      </c>
+      <c r="Y17">
+        <v>-0.00967529904003463</v>
+      </c>
+      <c r="Z17">
+        <v>0.9808936551784145</v>
+      </c>
+      <c r="AA17">
+        <v>0.6282356193107197</v>
+      </c>
+      <c r="AB17">
+        <v>0.7567558754350987</v>
+      </c>
+      <c r="AC17">
+        <v>0.772718721985034</v>
+      </c>
+      <c r="AD17">
+        <v>0.6958140349988097</v>
+      </c>
+      <c r="AE17">
+        <v>0.9977774734273933</v>
+      </c>
+      <c r="AF17">
+        <v>0.582641889260336</v>
+      </c>
+      <c r="AG17">
+        <v>0.6767595149740053</v>
+      </c>
+      <c r="AH17">
+        <v>0.04761433834503504</v>
+      </c>
+      <c r="AI17">
+        <v>0.1698258043991358</v>
+      </c>
+      <c r="AJ17">
+        <v>0.05706137123921573</v>
+      </c>
+      <c r="AK17">
+        <v>0.7115153642955275</v>
+      </c>
+      <c r="AL17">
+        <v>-0.09036131984870369</v>
+      </c>
+      <c r="AM17">
+        <v>0.9933966248308946</v>
+      </c>
+      <c r="AN17">
+        <v>0.6889885971354041</v>
+      </c>
+      <c r="AO17">
+        <v>0.9935589304779059</v>
+      </c>
+      <c r="AP17">
+        <v>0.8132972840960943</v>
+      </c>
+      <c r="AQ17">
+        <v>0.9660968860883019</v>
+      </c>
+      <c r="AR17">
+        <v>0.05564019528162282</v>
+      </c>
+      <c r="AS17">
+        <v>-0.5972361670754832</v>
+      </c>
+      <c r="AT17">
+        <v>0.7421257009786218</v>
+      </c>
+      <c r="AU17">
+        <v>0.9891302452783406</v>
+      </c>
+      <c r="AV17">
+        <v>-0.05785924583788199</v>
+      </c>
+      <c r="AW17">
+        <v>-0.6842766547887866</v>
+      </c>
+      <c r="AX17">
+        <v>0.6355024801330872</v>
+      </c>
+      <c r="AY17">
+        <v>0.6261990410791367</v>
+      </c>
+      <c r="AZ17">
+        <v>-0.01905008573881502</v>
+      </c>
+      <c r="BA17">
+        <v>-0.2040260255421625</v>
+      </c>
+      <c r="BB17">
+        <v>-0.7840650908731021</v>
+      </c>
+      <c r="BC17">
+        <v>0.7675926052015645</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:56">
       <c r="A18">
-        <v>0.2231560037435797</v>
+        <v>0.4539129035597652</v>
       </c>
       <c r="B18">
-        <v>0.199329442381917</v>
+        <v>0.1677689322701225</v>
       </c>
       <c r="C18">
-        <v>-0.04170985658668373</v>
+        <v>0.5286855427601996</v>
       </c>
       <c r="D18">
-        <v>0.0006629232391801249</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>-0.08558345381585487</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
+        <v>0.05752114594520763</v>
+      </c>
+      <c r="F18">
+        <v>0.9803798427722734</v>
+      </c>
+      <c r="G18">
+        <v>0.5279823431388889</v>
+      </c>
+      <c r="H18">
+        <v>0.08601183060131362</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.3037867627839361</v>
+      </c>
+      <c r="K18">
+        <v>0.7228560367216286</v>
+      </c>
+      <c r="L18">
+        <v>0.06533940863630065</v>
+      </c>
+      <c r="M18">
+        <v>0.6698553704872175</v>
+      </c>
+      <c r="N18">
+        <v>-0.6306819730335467</v>
+      </c>
+      <c r="O18">
+        <v>-0.6614074660775926</v>
+      </c>
+      <c r="P18">
+        <v>-0.04450839449614749</v>
+      </c>
+      <c r="Q18">
+        <v>-0.6901629120931781</v>
+      </c>
+      <c r="R18">
+        <v>0.6014166457144908</v>
+      </c>
+      <c r="S18">
+        <v>0.9999997138899139</v>
+      </c>
+      <c r="T18">
+        <v>0.7367530508002352</v>
+      </c>
+      <c r="U18">
+        <v>0.9972697031035042</v>
+      </c>
+      <c r="V18">
+        <v>0.08035129469512142</v>
+      </c>
+      <c r="W18">
+        <v>0.04016511829288252</v>
+      </c>
+      <c r="X18">
+        <v>0.6581407273380931</v>
+      </c>
+      <c r="Y18">
+        <v>0.001155538606965305</v>
+      </c>
+      <c r="Z18">
+        <v>0.9868010508533248</v>
+      </c>
+      <c r="AA18">
+        <v>0.7233785374357188</v>
+      </c>
+      <c r="AB18">
+        <v>0.7846729261521463</v>
+      </c>
+      <c r="AC18">
+        <v>0.7331746845482924</v>
+      </c>
+      <c r="AD18">
+        <v>0.7052080687301711</v>
+      </c>
+      <c r="AE18">
+        <v>0.9939660735155115</v>
+      </c>
+      <c r="AF18">
+        <v>0.6770128152226818</v>
+      </c>
+      <c r="AG18">
+        <v>0.8365245139813937</v>
+      </c>
+      <c r="AH18">
+        <v>0.06609422578271471</v>
+      </c>
+      <c r="AI18">
+        <v>0.1537385147836958</v>
+      </c>
+      <c r="AJ18">
+        <v>0.1138412405898353</v>
+      </c>
+      <c r="AK18">
+        <v>0.7119416158584861</v>
+      </c>
+      <c r="AL18">
+        <v>0.07499770841384128</v>
+      </c>
+      <c r="AM18">
+        <v>0.9960651107954227</v>
+      </c>
+      <c r="AN18">
+        <v>0.6704168383207236</v>
+      </c>
+      <c r="AO18">
+        <v>0.9991895917863141</v>
+      </c>
+      <c r="AP18">
+        <v>0.8033429894653157</v>
+      </c>
+      <c r="AQ18">
+        <v>0.9968587908531595</v>
+      </c>
+      <c r="AR18">
+        <v>0.2407044256299698</v>
+      </c>
+      <c r="AS18">
+        <v>-0.6300947542857163</v>
+      </c>
+      <c r="AT18">
+        <v>0.7787216910732715</v>
+      </c>
+      <c r="AU18">
+        <v>0.9992388013056216</v>
+      </c>
+      <c r="AV18">
+        <v>0.2014415970625482</v>
+      </c>
+      <c r="AW18">
+        <v>-0.6608399173589001</v>
+      </c>
+      <c r="AX18">
+        <v>0.7536549392740969</v>
+      </c>
+      <c r="AY18">
+        <v>0.7713757270919062</v>
+      </c>
+      <c r="AZ18">
+        <v>-0.04375267909285345</v>
+      </c>
+      <c r="BA18">
+        <v>0.1630774690358086</v>
+      </c>
+      <c r="BB18">
+        <v>-0.6896153048715099</v>
+      </c>
+      <c r="BC18">
+        <v>0.6020208302842308</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:56">
       <c r="A19">
-        <v>-0.3261270174712719</v>
+        <v>0.5412231818153307</v>
       </c>
       <c r="B19">
-        <v>-0.1233073540643913</v>
+        <v>0.2413290549589735</v>
       </c>
       <c r="C19">
-        <v>-0.432155590577181</v>
+        <v>0.4520086576364494</v>
       </c>
       <c r="D19">
-        <v>-0.07398362606105821</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>-0.1307643344056267</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>0.6529832593339772</v>
-      </c>
-      <c r="B20">
-        <v>-0.01920667037042418</v>
-      </c>
-      <c r="C20">
-        <v>0.0566608955955071</v>
-      </c>
-      <c r="D20">
-        <v>-0.1173726375159124</v>
-      </c>
-      <c r="E20">
-        <v>0.1624665599669474</v>
-      </c>
-      <c r="F20" t="s">
+        <v>0.2273824191106257</v>
+      </c>
+      <c r="F19">
+        <v>0.9800521690213131</v>
+      </c>
+      <c r="G19">
+        <v>0.4903721391133189</v>
+      </c>
+      <c r="H19">
+        <v>0.0002054001844853995</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.4258259766146514</v>
+      </c>
+      <c r="K19">
+        <v>0.6599304542843467</v>
+      </c>
+      <c r="L19">
+        <v>0.04383444989319334</v>
+      </c>
+      <c r="M19">
+        <v>0.7041725365068402</v>
+      </c>
+      <c r="N19">
+        <v>-0.6476856816975477</v>
+      </c>
+      <c r="O19">
+        <v>-0.7176766999142862</v>
+      </c>
+      <c r="P19">
+        <v>-0.05006533355977247</v>
+      </c>
+      <c r="Q19">
+        <v>-0.7986583354439174</v>
+      </c>
+      <c r="R19">
+        <v>0.7584755194049928</v>
+      </c>
+      <c r="S19">
+        <v>0.999490040628404</v>
+      </c>
+      <c r="T19">
+        <v>0.779532209912903</v>
+      </c>
+      <c r="U19">
+        <v>0.9981685653396617</v>
+      </c>
+      <c r="V19">
+        <v>0.1450140421707606</v>
+      </c>
+      <c r="W19">
+        <v>0.04958949967219289</v>
+      </c>
+      <c r="X19">
+        <v>0.7173448468500521</v>
+      </c>
+      <c r="Y19">
+        <v>-0.07492202745665726</v>
+      </c>
+      <c r="Z19">
+        <v>0.9901818489637035</v>
+      </c>
+      <c r="AA19">
+        <v>0.6835853517382641</v>
+      </c>
+      <c r="AB19">
+        <v>0.7402134420605558</v>
+      </c>
+      <c r="AC19">
+        <v>0.732784359159617</v>
+      </c>
+      <c r="AD19">
+        <v>0.6642481314740439</v>
+      </c>
+      <c r="AE19">
+        <v>0.995591372449171</v>
+      </c>
+      <c r="AF19">
+        <v>0.5661975525109593</v>
+      </c>
+      <c r="AG19">
+        <v>0.6843224789478842</v>
+      </c>
+      <c r="AH19">
+        <v>0.0757134981471758</v>
+      </c>
+      <c r="AI19">
+        <v>0.08489397690582023</v>
+      </c>
+      <c r="AJ19">
+        <v>-0.01092082030713282</v>
+      </c>
+      <c r="AK19">
+        <v>0.6738838516810065</v>
+      </c>
+      <c r="AL19">
+        <v>-0.1351087148364941</v>
+      </c>
+      <c r="AM19">
+        <v>0.9968245520799465</v>
+      </c>
+      <c r="AN19">
+        <v>0.7264861473382511</v>
+      </c>
+      <c r="AO19">
+        <v>0.9954034597333369</v>
+      </c>
+      <c r="AP19">
+        <v>0.7933787693279012</v>
+      </c>
+      <c r="AQ19">
+        <v>0.9757839554053519</v>
+      </c>
+      <c r="AR19">
+        <v>0.005282644685366016</v>
+      </c>
+      <c r="AS19">
+        <v>-0.6230260811274065</v>
+      </c>
+      <c r="AT19">
+        <v>0.7314338748053724</v>
+      </c>
+      <c r="AU19">
+        <v>0.9922471911497204</v>
+      </c>
+      <c r="AV19">
+        <v>-0.09051061127839058</v>
+      </c>
+      <c r="AW19">
+        <v>-0.6950739551996576</v>
+      </c>
+      <c r="AX19">
+        <v>0.6410151563612524</v>
+      </c>
+      <c r="AY19">
+        <v>0.612910932202005</v>
+      </c>
+      <c r="AZ19">
+        <v>-0.01814775198256551</v>
+      </c>
+      <c r="BA19">
+        <v>-0.2135787644244595</v>
+      </c>
+      <c r="BB19">
+        <v>-0.7790348049818669</v>
+      </c>
+      <c r="BC19">
+        <v>0.7788989228627976</v>
+      </c>
+      <c r="BD19" t="s">
         <v>12</v>
       </c>
     </row>
